--- a/2MachineModel_test.xlsx
+++ b/2MachineModel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2E33C-EC72-480F-9EB1-02277BBD9EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AD91F-AF84-4214-9771-B0A15268FF33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:I57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/2MachineModel_test.xlsx
+++ b/2MachineModel_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AD91F-AF84-4214-9771-B0A15268FF33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3FD37-B872-4DA9-81A2-72CCA5D2BA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The buses and corresponding devices CAN be listed below in arbitrary order.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The bus 1 HAVE TO be the slack bus, i.e., type-1 bus.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self branch HAS TO be GC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For each bus, at least ONE and only ONE device can be connected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the devices connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,18 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type with default values:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%===============================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>theta (rad)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,90 +249,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note: the voltage and frequency of infinite bus are setted by power flow.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note: the floating bus is used for the case when "no device" is connected.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10-19: Grid-following inverter with PLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vdc = 2.5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cdc = 1.25 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL = 0.03 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wLf = 0.05 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rf = 0.05/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wCf = 0.02 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wLc = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rc = 0.01/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H = 3.5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D = 1 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL = 0.1 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10: Synchronous machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xov = 0 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29: Grid-forming inverter with frequency droop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The transformer is added between FromBus and branch.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,36 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w droop gain Dw
-= 5/100 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: droop
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: vdq
-= 250 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: idq
-= 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: vdc
- = 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth: PLL
-= 20 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bus type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,133 +321,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%===============================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%%%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100: DC floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1090: DC infinite bus (small-signal short-circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90: AC infinite bus (short circuit in 
-small-signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100: AC floating bus (open circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: constant field flux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: with exitation circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: with prime mover control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10: dc-side input is Pdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11: fixed vdc, id_r = Pdc/vd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12: dc-side input is idc = Pdc/vdc_r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001: with vdc dynamics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vdc = 2 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth vdc
-= 10 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020-1029: Grid-forming buck converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cdc = 0.8 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL = 0.05 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 0000-0100: AC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 1000-1100: DC device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% 2000-2100: Hybrid device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010-1019: Grid-feeding buck converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000: power flow control (grid-feeding at both sides)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003: transfverter (grid-forming at both sides)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20: fixed vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-2009: AC-DC interlink converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DC bus type: 1-slack bus (V bus), 2-N/A, 3-P bus (I bus)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001: vdc control (grid-forming at dc side)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002: vac control (grid-forming at ac side)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,78 +349,6 @@
     <t>The Newton-Raphson power flow method can be used for pure ac grids only.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Bandwidth i
-= 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> highlighted devices are not available currently.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wLac = 0.05 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cdc = 1.6 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ldc = 0.01 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rac = 0.05/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rdc = 0.01/5 pu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth idq
-= 500 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth vdc
-= 10 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth PLL
-= 10 Hz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The dc and ac-dc hybrid devices support default data only, and do not support custormized data for now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -689,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,14 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -750,13 +410,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -780,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -788,29 +441,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1118,76 +748,76 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>99</v>
+      <c r="A3" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1242,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1275,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1299,462 +929,71 @@
     <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B49" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D56">
+      <c r="E4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4/5</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="E56">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F56" s="2">
-        <f>E56/5</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="E57">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F57" s="2">
-        <f>E57/5</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="2"/>
+      <c r="I5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1778,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1788,32 +1027,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1823,15 +1062,15 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -1846,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1100,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1882,12 +1121,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1897,25 +1136,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -1930,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1981,17 +1220,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000/2</f>
@@ -2000,7 +1239,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2008,7 +1247,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2016,7 +1255,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2044,144 +1283,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/2MachineModel_test.xlsx
+++ b/2MachineModel_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3FD37-B872-4DA9-81A2-72CCA5D2BA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF01C2B-08BB-4398-974A-110D61819337}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -970,6 +970,7 @@
         <f>E4/5</f>
         <v>2.0000000000000002E-5</v>
       </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -977,22 +978,22 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
       <c r="E5" s="1">
-        <v>0.05</v>
+        <v>1E-4</v>
       </c>
       <c r="F5" s="2">
         <f>E5/5</f>
-        <v>0.01</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1000000</v>
-      </c>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="2"/>
     </row>
   </sheetData>
@@ -1435,7 +1436,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1450,12 +1451,12 @@
       <c r="C1">
         <v>5</v>
       </c>
-      <c r="D1">
-        <v>5.0000000000000001E-3</v>
+      <c r="D1" s="1">
+        <v>1E-4</v>
       </c>
       <c r="E1" s="2">
         <f>D1/5</f>
-        <v>1E-3</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1463,18 +1464,18 @@
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2">
-        <v>5.0000000000000001E-3</v>
+      <c r="D2" s="1">
+        <v>0.05</v>
       </c>
       <c r="E2" s="2">
         <f>D2/5</f>
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>1000</v>
+      <c r="H2" s="1">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
